--- a/stats_code/output/run2_individual_variability_recalled_events/isc_anova_results_all_analyses.xlsx
+++ b/stats_code/output/run2_individual_variability_recalled_events/isc_anova_results_all_analyses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>f_stat</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>n_groups</t>
+  </si>
+  <si>
+    <t>eta_squared</t>
+  </si>
+  <si>
+    <t>partial_eta_squared</t>
   </si>
   <si>
     <t>analysis</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +444,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>48.1267713346072</v>
       </c>
@@ -459,13 +471,19 @@
         <v>3</v>
       </c>
       <c r="G2">
+        <v>0.03095712245665988</v>
+      </c>
+      <c r="H2">
+        <v>0.03095712245665988</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
+      <c r="J2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>15.44529210659782</v>
       </c>
@@ -485,13 +503,19 @@
         <v>3</v>
       </c>
       <c r="G3">
+        <v>0.01014838850430636</v>
+      </c>
+      <c r="H3">
+        <v>0.01014838850430636</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>45.95506557653798</v>
       </c>
@@ -511,13 +535,19 @@
         <v>3</v>
       </c>
       <c r="G4">
+        <v>0.02960154312709305</v>
+      </c>
+      <c r="H4">
+        <v>0.02960154312709305</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
+      <c r="J4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>14.97472318089149</v>
       </c>
@@ -537,10 +567,16 @@
         <v>3</v>
       </c>
       <c r="G5">
+        <v>0.009842242498504593</v>
+      </c>
+      <c r="H5">
+        <v>0.009842242498504593</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
+      <c r="J5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
